--- a/public/import/daily_template 27.xlsx
+++ b/public/import/daily_template 27.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\New folder (2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -28,104 +33,95 @@
     <t>15:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Morning Briefing With Team Accounting </t>
-  </si>
-  <si>
-    <t>08:30</t>
+    <t xml:space="preserve">Report sementara OVR </t>
+  </si>
+  <si>
+    <t>Monitoring penjualan acc ,xl dan vivo CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memastikan Operasional berjalan tanpa temuan Audit open close, briefing, SO, Aktivity, Buku customer di kerjakan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cek tim toko share brief pagi ke grup katalog internal promo ig dan tage ig dept.cs </t>
+  </si>
+  <si>
+    <t>Cek dan monitor keptok report Zurich</t>
+  </si>
+  <si>
+    <t>Review report hasil aktivity tim toko</t>
+  </si>
+  <si>
+    <t>Review performance kpi tim toko</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>Report Tecno Iphone samsung japri pak yuke dan pak william</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>Report pencapaian hp vs zurich min 35%</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Morning Brief with Keptok </t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info to do list FL kasir di grup  </t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaind team menawarkan Donasi rumah zakat </t>
+  </si>
+  <si>
     <t>10:30</t>
   </si>
   <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekap mutasi tak bertuan </t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input dana belum input pada btsm dan pendapatan lain-lain  </t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Rekap, dan Follow up EDC, Finance, Mitra dan Ar</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cek dan Rekap BTSM dan BTSM19 </t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow up Mutasi blm input dan pembetulan transaksi salah input  </t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>Rekap Mutasi blm input</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>Rekap saldo akhir Bank dana CSA</t>
-  </si>
-  <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Like, Save and Share All Social Media Complete Selular </t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>Pengecekan Mutasi tanggal 16 Juni 2022</t>
-  </si>
-  <si>
-    <t>Tarik Mutasi Rekening Bank  tanggal 16 Juni 2022</t>
-  </si>
-  <si>
-    <t>Tarik Mutasi Bank di Sistem CSA tanggal 16 Juni 2022</t>
-  </si>
-  <si>
-    <t>Rekap Mutasi blm input, Mutasi slh tf, dan Mutasi salah tanggal 16 Juni 2022</t>
-  </si>
-  <si>
-    <t>Tarik update mutasi rekening bank  tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>Pengecekan Mutasi tanggal 17 Juni 2022</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
+    <t>Morning Brief With Manager</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>Review performance persales person per toko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +131,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -173,14 +175,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,15 +497,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="116.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,180 +518,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
